--- a/resources/experiment 1/metrics/MAPE/average time/Edema macular diabético.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Edema macular diabético.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01566404367150628</v>
+        <v>0.01506966406258767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01566404367150628</v>
+        <v>0.01528788969539829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01566404367150628</v>
+        <v>0.01554042569242123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01258548569774299</v>
+        <v>0.01404973796260023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01258548569774299</v>
+        <v>0.01393096764415543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01258548569774299</v>
+        <v>0.01396461944426478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04184432881839564</v>
+        <v>0.01341175649887488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04184432881839564</v>
+        <v>0.01351320911982408</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04184432881839564</v>
+        <v>0.01270016220192608</v>
       </c>
     </row>
   </sheetData>
